--- a/biology/Médecine/Paul_Belaiche-Daninos/Paul_Belaiche-Daninos.xlsx
+++ b/biology/Médecine/Paul_Belaiche-Daninos/Paul_Belaiche-Daninos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Belaiche-Daninos est un écrivain français, lauréat de l’Académie française, né à Constantine, en Algérie, le 16 février 1933[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Belaiche-Daninos est un écrivain français, lauréat de l’Académie française, né à Constantine, en Algérie, le 16 février 1933.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de médecine en Algérie, il s'installe en France et plus particulièrement 
 à la Courneuve dans la Cité des 4000 où sont entassés les rapatriés d’Algérie. Il crée le Centre médical d’Orgemont à Épinay-sur-Seine.
 En 1972, il est nommé médecin-chef au DUMENAT de l'UER de l'Université Paris-XIII.
 En 1973, il est nommé Professeur de pharmacologie clinique à l'Université de Sienne en Italie. Passionné de cinéma, il crée la Cinémathèque du Lubéron à Ménerbes.
-À la retraite, passionné d'histoire, il commence une carrière d'écrivain avec Les soixante-seize jours de Marie-Antoinette à la Conciergerie, édité par Actes Sud et reçoit le prix Jacques de Fouchier de l’Académie française en 2006[2].
+À la retraite, passionné d'histoire, il commence une carrière d'écrivain avec Les soixante-seize jours de Marie-Antoinette à la Conciergerie, édité par Actes Sud et reçoit le prix Jacques de Fouchier de l’Académie française en 2006.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1979 : Président fondateur de L’Institut national de phytothérapie
 1984 : Reçu à la Fondation Carlo Erba de Milan
@@ -580,7 +596,9 @@
           <t>Prix littéraire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2006 : Prix Jacques-de-Fouchier de l’Académie française</t>
         </is>
